--- a/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9191d99891275c14/Documents/Angela/LifeCycle/Manual/WP1  package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC37B182-6625-41EE-8336-4843BE84CD51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7204F857-B6BD-3E47-A0FF-4060A5B07B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -925,16 +925,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
       <c r="BF1"/>
       <c r="BG1"/>
     </row>
-    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>52</v>
       </c>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>55</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>62</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>68</v>
       </c>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>70</v>
       </c>
@@ -1470,15 +1470,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.81640625" style="1"/>
-    <col min="4" max="4" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>37</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>39</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>39</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>39</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>39</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>40</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>40</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>40</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>42</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>42</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>42</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>42</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>43</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>43</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>43</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>43</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>43</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>43</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>43</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>43</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>43</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>45</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>45</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>45</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>45</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>46</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>46</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>46</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>46</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>46</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>46</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>46</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>46</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>46</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>46</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>48</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>48</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>48</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>49</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>49</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>49</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>51</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>51</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>51</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>51</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>52</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>52</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>52</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>54</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>54</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>54</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>54</v>
       </c>

--- a/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7204F857-B6BD-3E47-A0FF-4060A5B07B3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2BF5F8-1F7A-034B-ADF9-8178B1959734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>variable</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>Gen R</t>
   </si>
   <si>
@@ -375,6 +372,9 @@
   </si>
   <si>
     <t>Father type (e.g. occup_f1_0)</t>
+  </si>
+  <si>
+    <t>isMissing</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1014,13 +1014,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1029,13 +1029,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1044,13 +1044,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1059,13 +1059,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1074,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -1089,13 +1089,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1104,28 +1104,28 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -1134,28 +1134,28 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -1164,28 +1164,28 @@
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -1194,28 +1194,28 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -1224,28 +1224,28 @@
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -1254,28 +1254,28 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -1284,13 +1284,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -1299,13 +1299,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -1314,13 +1314,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -1329,13 +1329,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -1344,13 +1344,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -1359,97 +1359,97 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E31"/>
     </row>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,11 +1499,11 @@
       <c r="B2" s="3">
         <v>101</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,11 +1513,11 @@
       <c r="B3" s="3">
         <v>102</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1527,11 +1527,11 @@
       <c r="B4" s="3">
         <v>103</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,11 +1541,11 @@
       <c r="B5" s="3">
         <v>104</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1555,11 +1555,11 @@
       <c r="B6" s="3">
         <v>105</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1569,11 +1569,11 @@
       <c r="B7" s="3">
         <v>106</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1583,11 +1583,11 @@
       <c r="B8" s="3">
         <v>107</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1597,11 +1597,11 @@
       <c r="B9" s="3">
         <v>108</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1611,11 +1611,11 @@
       <c r="B10" s="3">
         <v>109</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1625,11 +1625,11 @@
       <c r="B11" s="3">
         <v>110</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1639,11 +1639,11 @@
       <c r="B12" s="3">
         <v>111</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1653,11 +1653,11 @@
       <c r="B13" s="3">
         <v>112</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1667,11 +1667,11 @@
       <c r="B14" s="3">
         <v>113</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1681,11 +1681,11 @@
       <c r="B15" s="3">
         <v>114</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1695,11 +1695,11 @@
       <c r="B16" s="3">
         <v>115</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1709,11 +1709,11 @@
       <c r="B17" s="3">
         <v>116</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1723,11 +1723,11 @@
       <c r="B18" s="3">
         <v>117</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1737,1173 +1737,1173 @@
       <c r="B19" s="3">
         <v>118</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <v>2</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3">
         <v>4</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3">
         <v>5</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>8</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>9</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3">
         <v>2</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="3">
         <v>6</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3">
         <v>3</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>4</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3">
         <v>3</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="3">
         <v>4</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="3">
         <v>6</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="3">
         <v>3</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="3">
         <v>3</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="3">
         <v>4</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="3">
         <v>5</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="3">
         <v>6</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" s="3">
         <v>7</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68" s="3">
         <v>8</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69" s="3">
         <v>9</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" s="3">
         <v>2</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B73" s="3">
         <v>3</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" s="3">
         <v>4</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B76" s="3">
         <v>2</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B78" s="3">
         <v>4</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" s="3">
         <v>5</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="3">
         <v>6</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="3">
         <v>7</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="3">
         <v>8</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="3">
         <v>9</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="3">
         <v>3</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="3">
         <v>4</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="3">
         <v>2</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="3">
         <v>3</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" s="3">
         <v>3</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95" s="3">
         <v>4</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98" s="3">
         <v>3</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100" s="3">
         <v>2</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" s="3">
         <v>4</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2BF5F8-1F7A-034B-ADF9-8178B1959734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C67B4-0F8F-6D49-9DAC-CF7DB91ABA0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -38,64 +38,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>cohort_id</t>
-  </si>
-  <si>
     <t>variable</t>
-  </si>
-  <si>
-    <t>Gen R</t>
-  </si>
-  <si>
-    <t>INMA</t>
-  </si>
-  <si>
-    <t>NINFEA</t>
-  </si>
-  <si>
-    <t>SWS</t>
-  </si>
-  <si>
-    <t>ALSPAC</t>
-  </si>
-  <si>
-    <t>DNBC</t>
-  </si>
-  <si>
-    <t>BIB</t>
-  </si>
-  <si>
-    <t>GECKO</t>
-  </si>
-  <si>
-    <t>RHEA</t>
-  </si>
-  <si>
-    <t>MOBA</t>
-  </si>
-  <si>
-    <t>ELFE</t>
-  </si>
-  <si>
-    <t>EDEN</t>
-  </si>
-  <si>
-    <t>NFBC66</t>
-  </si>
-  <si>
-    <t>NFBC86</t>
-  </si>
-  <si>
-    <t>HBCS</t>
-  </si>
-  <si>
-    <t>CHOP</t>
-  </si>
-  <si>
-    <t>RAINE</t>
-  </si>
-  <si>
-    <t>RUG</t>
   </si>
   <si>
     <t>Biological father</t>
@@ -945,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -1005,7 +948,7 @@
     </row>
     <row r="2" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1014,13 +957,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1029,13 +972,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -1044,13 +987,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -1059,13 +1002,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -1074,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -1089,13 +1032,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -1104,13 +1047,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -1119,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>3</v>
@@ -1134,13 +1077,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>3</v>
@@ -1149,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -1164,13 +1107,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E12"/>
     </row>
     <row r="13" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -1179,13 +1122,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E13"/>
     </row>
     <row r="14" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>3</v>
@@ -1194,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -1209,13 +1152,13 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>3</v>
@@ -1224,13 +1167,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>3</v>
@@ -1239,13 +1182,13 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -1254,13 +1197,13 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>3</v>
@@ -1269,13 +1212,13 @@
         <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>3</v>
@@ -1284,13 +1227,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -1299,13 +1242,13 @@
         <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>3</v>
@@ -1314,13 +1257,13 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>3</v>
@@ -1329,13 +1272,13 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>3</v>
@@ -1344,13 +1287,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>3</v>
@@ -1359,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -1374,13 +1317,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>3</v>
@@ -1389,13 +1332,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>3</v>
@@ -1404,13 +1347,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>3</v>
@@ -1419,13 +1362,13 @@
         <v>4</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>3</v>
@@ -1434,13 +1377,13 @@
         <v>4</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>3</v>
@@ -1449,7 +1392,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E31"/>
     </row>
@@ -1464,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1480,273 +1423,273 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+      <c r="D2" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
+      <c r="D6" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+      <c r="D7" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>107</v>
-      </c>
       <c r="C8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
+      <c r="D9" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
+      <c r="D10" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="C11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
+      <c r="D11" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="C12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
+      <c r="D12" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3">
-        <v>113</v>
-      </c>
       <c r="C14" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
+      <c r="D15" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
+      <c r="D16" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="C17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
+      <c r="D17" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>23</v>
+      <c r="D18" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>24</v>
+      <c r="D19" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1754,13 +1697,13 @@
       <c r="C20" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>71</v>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -1768,503 +1711,503 @@
       <c r="C21" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>72</v>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>73</v>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="3">
+      <c r="C29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3">
         <v>2</v>
       </c>
-      <c r="C29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
       <c r="C30" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
+      <c r="A31" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B31" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
+      <c r="A32" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B32" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B34" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C34" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C37" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B38" s="3">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3">
+      <c r="C39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3">
         <v>2</v>
       </c>
-      <c r="C39" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3</v>
-      </c>
       <c r="C40" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>91</v>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>36</v>
+      <c r="A41" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B41" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
+      <c r="A42" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B42" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B43" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B45" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="3">
         <v>6</v>
       </c>
-      <c r="C46" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="3">
-        <v>2</v>
-      </c>
       <c r="C48" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>38</v>
+      <c r="A49" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B49" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C49" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>38</v>
+      <c r="A50" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B50" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C50" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B51" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C51" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="3">
         <v>2</v>
       </c>
-      <c r="C52" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="3">
-        <v>3</v>
-      </c>
-      <c r="C53" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B54" s="3">
-        <v>4</v>
-      </c>
       <c r="C54" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>39</v>
+      <c r="A55" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B55" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>39</v>
+      <c r="A56" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B56" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>41</v>
+      <c r="A57" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -2273,12 +2216,12 @@
         <v>0</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>41</v>
+      <c r="A58" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B58" s="3">
         <v>2</v>
@@ -2287,13 +2230,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="B59" s="3">
         <v>3</v>
       </c>
@@ -2301,12 +2244,12 @@
         <v>0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>41</v>
+      <c r="A60" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B60" s="3">
         <v>4</v>
@@ -2315,152 +2258,152 @@
         <v>0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B61" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B62" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C62" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B63" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C63" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B64" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C64" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B65" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C65" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B66" s="3">
+        <v>0</v>
+      </c>
+      <c r="C66" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="3">
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B68" s="3">
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="3">
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3">
+        <v>4</v>
+      </c>
+      <c r="C70" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="3">
-        <v>0</v>
-      </c>
-      <c r="C70" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>44</v>
+      <c r="A71" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -2468,13 +2411,13 @@
       <c r="C71" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>25</v>
+      <c r="D71" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>44</v>
+      <c r="A72" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B72" s="3">
         <v>2</v>
@@ -2482,13 +2425,13 @@
       <c r="C72" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>26</v>
+      <c r="D72" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>44</v>
+      <c r="A73" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B73" s="3">
         <v>3</v>
@@ -2496,414 +2439,162 @@
       <c r="C73" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>27</v>
+      <c r="D73" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B74" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C74" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>45</v>
+      <c r="A75" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>45</v>
+      <c r="A76" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B76" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>45</v>
+      <c r="A77" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B77" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B78" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C78" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>82</v>
+      <c r="D78" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B79" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C79" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>83</v>
+      <c r="D79" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B80" s="3">
+        <v>3</v>
+      </c>
+      <c r="C80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="3">
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="3">
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="3">
+        <v>3</v>
+      </c>
+      <c r="C83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="3">
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="3">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C83" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0</v>
-      </c>
-      <c r="C84" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="3">
-        <v>2</v>
-      </c>
-      <c r="C86" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87" s="3">
-        <v>3</v>
-      </c>
-      <c r="C87" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="3">
-        <v>4</v>
-      </c>
-      <c r="C88" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="3">
-        <v>2</v>
-      </c>
-      <c r="C90" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="3">
-        <v>3</v>
-      </c>
-      <c r="C91" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93" s="3">
-        <v>2</v>
-      </c>
-      <c r="C93" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" s="3">
-        <v>3</v>
-      </c>
-      <c r="C94" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="3">
-        <v>4</v>
-      </c>
-      <c r="C95" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" s="3">
-        <v>2</v>
-      </c>
-      <c r="C97" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B98" s="3">
-        <v>3</v>
-      </c>
-      <c r="C98" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" s="3">
-        <v>1</v>
-      </c>
-      <c r="C99" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" s="3">
-        <v>2</v>
-      </c>
-      <c r="C100" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="3">
-        <v>3</v>
-      </c>
-      <c r="C101" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B102" s="3">
-        <v>4</v>
-      </c>
-      <c r="C102" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C67B4-0F8F-6D49-9DAC-CF7DB91ABA0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F02AB4-8B7D-134E-A2B5-600986331B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
+++ b/R/data/dictionaries/1_0/1_0_yearly_repeated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sido/RProjects/analysis-protocols/R/data/dictionaries/1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F02AB4-8B7D-134E-A2B5-600986331B3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F65BF4-4F2A-8F41-B91B-C498B78D7D31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -263,9 +263,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>Unique identifier for row</t>
-  </si>
-  <si>
     <t>Age of child in years</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>isMissing</t>
+  </si>
+  <si>
+    <t>Unique identifier for id in Opal</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -957,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E2"/>
     </row>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3"/>
     </row>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4"/>
     </row>
@@ -1002,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6"/>
     </row>
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8"/>
     </row>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10"/>
     </row>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12"/>
     </row>
@@ -1137,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14"/>
     </row>
@@ -1167,7 +1167,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16"/>
     </row>
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18"/>
     </row>
@@ -1227,7 +1227,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20"/>
     </row>
@@ -1242,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21"/>
     </row>
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22"/>
     </row>
@@ -1272,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23"/>
     </row>
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24"/>
     </row>
@@ -1302,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25"/>
     </row>
@@ -1409,7 +1409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A68" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C84"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>79</v>
